--- a/data/ingredients.xlsx
+++ b/data/ingredients.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/iskriyanavasileva/git/deep-food/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F53F87C8-EFC5-B847-A81D-4633576F9C9E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{075C34DA-D428-3D41-B29C-501C222B6F21}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="740" yWindow="600" windowWidth="28040" windowHeight="16580" activeTab="2" xr2:uid="{8A6516FC-D9D1-6C41-9C40-AA38C96D52F7}"/>
+    <workbookView xWindow="740" yWindow="600" windowWidth="28040" windowHeight="16580" activeTab="1" xr2:uid="{8A6516FC-D9D1-6C41-9C40-AA38C96D52F7}"/>
   </bookViews>
   <sheets>
     <sheet name="classifier_labels" sheetId="5" r:id="rId1"/>
@@ -1566,7 +1566,7 @@
     <t>c</t>
   </si>
   <si>
-    <t>deleted from mapping</t>
+    <t>deleted from mapping &amp; out_of_fridge left as artichoke hearts</t>
   </si>
 </sst>
 </file>
@@ -1943,9 +1943,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4485D768-0F08-FB4C-8547-D1785038808A}">
   <dimension ref="A1:A52"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" zoomScale="86" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
-    </sheetView>
+    <sheetView zoomScale="86" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2221,8 +2219,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C3B1495-6569-8942-8ACB-07F56505884B}">
   <dimension ref="A1:A116"/>
   <sheetViews>
-    <sheetView topLeftCell="A65" workbookViewId="0">
-      <selection activeCell="A114" sqref="A114"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="A115" sqref="A115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2797,7 +2795,7 @@
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.2">
@@ -2819,8 +2817,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AC0C315-0565-3E48-B470-B99719F6EAD7}">
   <dimension ref="A1:C286"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A262" workbookViewId="0">
-      <selection activeCell="C279" sqref="C279"/>
+    <sheetView topLeftCell="A264" workbookViewId="0">
+      <selection activeCell="C281" sqref="C281"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
